--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,30 +43,33 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>ripped</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>returned</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
@@ -79,141 +82,138 @@
     <t>smaller</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>small</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>less</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>tried</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>bit</t>
+    <t>size</t>
+  </si>
+  <si>
+    <t>fit</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>worked</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -223,24 +223,24 @@
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -256,19 +256,28 @@
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>fun</t>
   </si>
   <si>
     <t>game</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -640,7 +649,7 @@
         <v>68</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -698,13 +707,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -716,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K3">
-        <v>0.8518518518518519</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -740,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -748,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -766,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K4">
-        <v>0.8153846153846154</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -790,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -798,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.796875</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -816,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K5">
-        <v>0.7678571428571429</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -840,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -848,13 +857,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7586206896551724</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -866,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K6">
-        <v>0.6881720430107527</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="L6">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M6">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -890,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -898,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7526881720430108</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C7">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -916,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K7">
-        <v>0.6226415094339622</v>
+        <v>0.5625</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -940,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -948,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7027027027027027</v>
+        <v>0.7365591397849462</v>
       </c>
       <c r="C8">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="D8">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -966,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K8">
-        <v>0.609375</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -990,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -998,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6990291262135923</v>
+        <v>0.734375</v>
       </c>
       <c r="C9">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1016,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K9">
-        <v>0.4492753623188406</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1040,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1048,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6901408450704225</v>
+        <v>0.7281553398058253</v>
       </c>
       <c r="C10">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="D10">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1066,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K10">
-        <v>0.3754098360655738</v>
+        <v>0.3713114754098361</v>
       </c>
       <c r="L10">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="M10">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1090,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1098,13 +1107,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6842105263157895</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1116,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K11">
-        <v>0.3299856527977044</v>
+        <v>0.321377331420373</v>
       </c>
       <c r="L11">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M11">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1140,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1148,13 +1157,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6458333333333334</v>
+        <v>0.6959459459459459</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1166,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K12">
-        <v>0.3070539419087137</v>
+        <v>0.3008298755186722</v>
       </c>
       <c r="L12">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M12">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1190,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1198,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5818181818181818</v>
+        <v>0.6875</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1216,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K13">
-        <v>0.2833333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="L13">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1240,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1248,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5476190476190477</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1266,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K14">
-        <v>0.2079510703363914</v>
+        <v>0.2409638554216867</v>
       </c>
       <c r="L14">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="M14">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1290,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>259</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1298,13 +1307,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5378151260504201</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C15">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1316,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K15">
-        <v>0.1987951807228916</v>
+        <v>0.2171253822629969</v>
       </c>
       <c r="L15">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="M15">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1340,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>133</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1348,13 +1357,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5370370370370371</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1366,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K16">
-        <v>0.164021164021164</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1390,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1398,13 +1407,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5304347826086957</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C17">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1416,19 +1425,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K17">
-        <v>0.1104294478527607</v>
+        <v>0.1796875</v>
       </c>
       <c r="L17">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1440,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1015</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1448,13 +1457,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5185185185185185</v>
+        <v>0.518840579710145</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1466,31 +1475,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K18">
-        <v>0.05855562784645413</v>
+        <v>0.1164658634538153</v>
       </c>
       <c r="L18">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="N18">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1447</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1498,13 +1507,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4888888888888889</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1516,7 +1525,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="L19">
+        <v>120</v>
+      </c>
+      <c r="M19">
+        <v>121</v>
+      </c>
+      <c r="N19">
+        <v>0.99</v>
+      </c>
+      <c r="O19">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1020</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1524,13 +1557,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4578313253012048</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="C20">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D20">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1542,7 +1575,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20">
+        <v>0.06627680311890838</v>
+      </c>
+      <c r="L20">
+        <v>102</v>
+      </c>
+      <c r="M20">
+        <v>104</v>
+      </c>
+      <c r="N20">
+        <v>0.98</v>
+      </c>
+      <c r="O20">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1437</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1550,13 +1607,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.453125</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1568,7 +1625,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="L21">
+        <v>22</v>
+      </c>
+      <c r="M21">
+        <v>26</v>
+      </c>
+      <c r="N21">
+        <v>0.85</v>
+      </c>
+      <c r="O21">
+        <v>0.15</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>726</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1576,13 +1657,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4526315789473684</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C22">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1594,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1602,13 +1683,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4444444444444444</v>
+        <v>0.453125</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1628,25 +1709,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4173228346456693</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="C24">
+        <v>42</v>
+      </c>
+      <c r="D24">
+        <v>42</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>53</v>
-      </c>
-      <c r="D24">
-        <v>53</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1654,13 +1735,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4074074074074074</v>
+        <v>0.4094488188976378</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1672,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1680,13 +1761,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1698,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1706,13 +1787,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3820224719101123</v>
+        <v>0.3984375</v>
       </c>
       <c r="C27">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1724,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1732,13 +1813,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3793103448275862</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1750,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1758,13 +1839,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3515625</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C29">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1776,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1784,13 +1865,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3317535545023697</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C30">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D30">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1802,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>141</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1810,13 +1891,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3316831683168317</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="C31">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D31">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1828,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1836,13 +1917,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2755102040816326</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C32">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D32">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1854,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1862,13 +1943,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.264957264957265</v>
+        <v>0.2748815165876777</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D33">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1880,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>86</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1888,13 +1969,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2427536231884058</v>
+        <v>0.2628865979381443</v>
       </c>
       <c r="C34">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D34">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1906,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>209</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1914,13 +1995,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2371134020618557</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="C35">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1932,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>148</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1940,13 +2021,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2314814814814815</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1958,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1966,13 +2047,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.23</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="C37">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D37">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1984,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>154</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1992,25 +2073,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2278481012658228</v>
+        <v>0.2303120356612184</v>
       </c>
       <c r="C38">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="D38">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>244</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2018,25 +2099,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2232142857142857</v>
+        <v>0.2149532710280374</v>
       </c>
       <c r="C39">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="E39">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="F39">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>522</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2044,25 +2125,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1974522292993631</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="C40">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D40">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2070,13 +2151,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.189873417721519</v>
+        <v>0.2056962025316456</v>
       </c>
       <c r="C41">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D41">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2088,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2096,13 +2177,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1875</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="C42">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D42">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2114,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>156</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2122,13 +2203,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1846153846153846</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C43">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2140,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>106</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2148,13 +2229,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1718061674008811</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C44">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D44">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2166,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>376</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2174,13 +2255,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1714285714285714</v>
+        <v>0.1828193832599119</v>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="D45">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2192,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>145</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2200,25 +2281,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.170028818443804</v>
+        <v>0.18</v>
       </c>
       <c r="C46">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D46">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E46">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>288</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2226,13 +2307,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1530054644808743</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C47">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D47">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2244,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2252,25 +2333,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1401869158878505</v>
+        <v>0.170028818443804</v>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D48">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>184</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2278,25 +2359,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1382978723404255</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C49">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D49">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E49">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2304,7 +2385,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1361256544502618</v>
+        <v>0.1354166666666667</v>
       </c>
       <c r="C50">
         <v>26</v>
@@ -2322,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2330,25 +2411,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1290322580645161</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="C51">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D51">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2356,13 +2437,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1287671232876712</v>
+        <v>0.1315068493150685</v>
       </c>
       <c r="C52">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D52">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2374,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2382,13 +2463,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1235955056179775</v>
+        <v>0.1308900523560209</v>
       </c>
       <c r="C53">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D53">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2400,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>234</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2408,25 +2489,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.09534883720930233</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="C54">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D54">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E54">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="F54">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>389</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2434,13 +2515,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09014084507042254</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="C55">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D55">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2452,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>323</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2460,25 +2541,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.0894854586129754</v>
+        <v>0.09225700164744646</v>
       </c>
       <c r="C56">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D56">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E56">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F56">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>407</v>
+        <v>551</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2486,13 +2567,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.08928571428571429</v>
+        <v>0.08908685968819599</v>
       </c>
       <c r="C57">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D57">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2504,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>255</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2512,13 +2593,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.08517350157728706</v>
+        <v>0.08732394366197183</v>
       </c>
       <c r="C58">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D58">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2530,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>290</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2538,25 +2619,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08415841584158416</v>
+        <v>0.08214285714285714</v>
       </c>
       <c r="C59">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D59">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E59">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>555</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2564,25 +2645,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.05152224824355972</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="C60">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D60">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E60">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="F60">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2590,13 +2671,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04556962025316456</v>
+        <v>0.04683544303797468</v>
       </c>
       <c r="C61">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D61">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E61">
         <v>0.1</v>
@@ -2608,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2616,25 +2697,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.04287901990811639</v>
+        <v>0.03834355828220859</v>
       </c>
       <c r="C62">
+        <v>25</v>
+      </c>
+      <c r="D62">
         <v>28</v>
       </c>
-      <c r="D62">
-        <v>30</v>
-      </c>
       <c r="E62">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="F62">
-        <v>0.9299999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
